--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.7100370228341</v>
+        <v>256.7416712139283</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2939999103546143</v>
+        <v>0.2260000705718994</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>36.74167121392826</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.683053194461346</v>
+        <v>5.441553087125036</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.683053194461346</v>
+        <v>5.441553087125036</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.00000000183991</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>24.22809649842569</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24.55844691287496</v>
+        <v>22.53211374152102</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.31694680553866</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -957,7 +957,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>64.38000000002801</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>152.3990000000552</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>34.60300000000312</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>108.5810000000442</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7010000000851</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>156.7010000001144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>152.3990000000699</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.701000000114274</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399000000069716</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6.629</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1253,7 +1253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1289,17 +1289,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
